--- a/data-raw/metadata/F4F2019_metadata.xlsx
+++ b/data-raw/metadata/F4F2019_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobshikora\Documents\CalTrout\BORCharter\DataTransfer\2019Submission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\data-stewardship\EDI_data_repos_to_upload\fish-food-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03501DF2-C539-401B-97A0-A946D4A346DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A702A-DEE0-43AE-BA9F-D9676D547FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="543" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8505" yWindow="-15900" windowWidth="25020" windowHeight="15225" tabRatio="543" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="personnel" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,6 @@
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -42,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="296">
   <si>
     <t>first_name</t>
   </si>
@@ -176,12 +168,6 @@
     <t>domain</t>
   </si>
   <si>
-    <t>definition</t>
-  </si>
-  <si>
-    <t>text_pattern</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -215,9 +201,6 @@
     <t>attribute_name</t>
   </si>
   <si>
-    <t>CC0</t>
-  </si>
-  <si>
     <t>common_name</t>
   </si>
   <si>
@@ -236,9 +219,6 @@
     <t>jacob@caltrout.org</t>
   </si>
   <si>
-    <t>researcher</t>
-  </si>
-  <si>
     <t>Fish Food on Floodplain Farm Fields 2019</t>
   </si>
   <si>
@@ -326,9 +306,6 @@
     <t>ongoing</t>
   </si>
   <si>
-    <t>annual</t>
-  </si>
-  <si>
     <t>Sacramento Valley, CA</t>
   </si>
   <si>
@@ -413,9 +390,6 @@
     <t>whole</t>
   </si>
   <si>
-    <t>miligrams per liter</t>
-  </si>
-  <si>
     <t>pH</t>
   </si>
   <si>
@@ -431,9 +405,6 @@
     <t>chlorophyll-a fluorescence of water at time of sample collection</t>
   </si>
   <si>
-    <t>micrograms per liter</t>
-  </si>
-  <si>
     <t>Psedodiptomus.copepidite</t>
   </si>
   <si>
@@ -656,12 +627,6 @@
     <t>rank score</t>
   </si>
   <si>
-    <t>sample collection and/or processing notes</t>
-  </si>
-  <si>
-    <t>cubic meter</t>
-  </si>
-  <si>
     <t>rotation start</t>
   </si>
   <si>
@@ -936,6 +901,27 @@
   </si>
   <si>
     <t>hydra</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>CCO</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>milligramPerLiter</t>
+  </si>
+  <si>
+    <t>microgramPerLiter</t>
+  </si>
+  <si>
+    <t>cubicMeter</t>
+  </si>
+  <si>
+    <t>annually</t>
   </si>
 </sst>
 </file>
@@ -944,7 +930,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1027,7 +1013,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1416,7 +1402,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1448,22 +1434,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1501,13 +1487,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1541,10 +1527,10 @@
     </row>
     <row r="2" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1577,178 +1563,178 @@
     </row>
     <row r="2" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1748,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1778,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -1840,18 +1826,18 @@
     </row>
     <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1869,8 +1855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1888,10 +1874,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1934,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2" s="2">
         <v>-121.79667600000001</v>
@@ -1982,9 +1968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2001,7 +1987,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
@@ -2030,1304 +2016,1475 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="G6" t="s">
+        <v>291</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="G7" t="s">
+        <v>291</v>
       </c>
       <c r="H7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C8" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>209</v>
+      </c>
+      <c r="F8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G8" t="s">
+        <v>291</v>
       </c>
       <c r="H8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C9" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>230</v>
+      </c>
+      <c r="F9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="s">
+        <v>291</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C11" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H13" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C15" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G15" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="H15" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G16" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E17" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="H17" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H18" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E19" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I19" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C20" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E20" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C22" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I22" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F23" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="H23" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I23" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C24" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E24" t="s">
-        <v>230</v>
+        <v>221</v>
+      </c>
+      <c r="F24" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" t="s">
+        <v>291</v>
       </c>
       <c r="H24" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C26" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="H26" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C27" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E27" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C28" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E28" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>257</v>
+      </c>
+      <c r="D29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" t="s">
+        <v>291</v>
+      </c>
+      <c r="F29" t="s">
+        <v>291</v>
+      </c>
+      <c r="G29" t="s">
+        <v>291</v>
       </c>
       <c r="H29" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D30" t="s">
-        <v>269</v>
+        <v>260</v>
+      </c>
+      <c r="E30" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" t="s">
+        <v>291</v>
+      </c>
+      <c r="G30" t="s">
+        <v>291</v>
       </c>
       <c r="H30" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C31" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="F31" t="s">
+        <v>291</v>
+      </c>
+      <c r="G31" t="s">
+        <v>291</v>
       </c>
       <c r="H31" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D32" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F32" t="s">
-        <v>276</v>
+        <v>267</v>
+      </c>
+      <c r="G32" t="s">
+        <v>291</v>
       </c>
       <c r="H32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C33" t="s">
+        <v>259</v>
+      </c>
+      <c r="D33" t="s">
         <v>268</v>
       </c>
-      <c r="D33" t="s">
-        <v>277</v>
+      <c r="E33" t="s">
+        <v>291</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>291</v>
       </c>
       <c r="H33" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>258</v>
+      </c>
+      <c r="E34" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>291</v>
       </c>
       <c r="H34" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
+        <v>261</v>
+      </c>
+      <c r="D35" t="s">
+        <v>291</v>
+      </c>
+      <c r="E35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>291</v>
       </c>
       <c r="H35" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C36" t="s">
-        <v>271</v>
+        <v>262</v>
+      </c>
+      <c r="D36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E36" t="s">
+        <v>291</v>
+      </c>
+      <c r="F36" t="s">
+        <v>291</v>
+      </c>
+      <c r="G36" t="s">
+        <v>291</v>
       </c>
       <c r="H36" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D37" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="H37" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E38" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F38" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="H38" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C39" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>266</v>
+      </c>
+      <c r="E39" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" t="s">
+        <v>291</v>
+      </c>
+      <c r="G39" t="s">
+        <v>291</v>
       </c>
       <c r="H39" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D40" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+      <c r="E40" t="s">
+        <v>291</v>
+      </c>
+      <c r="F40" t="s">
+        <v>291</v>
+      </c>
+      <c r="G40" t="s">
+        <v>291</v>
       </c>
       <c r="H40" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C41" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E41" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F41" t="s">
-        <v>289</v>
+        <v>280</v>
+      </c>
+      <c r="G41" t="s">
+        <v>291</v>
       </c>
       <c r="H41" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D42" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>291</v>
       </c>
       <c r="H42" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C43" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D43" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E43" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F43" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="G43" t="s">
+        <v>291</v>
       </c>
       <c r="H43" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D44" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E44" t="s">
-        <v>173</v>
+        <v>166</v>
+      </c>
+      <c r="G44" t="s">
+        <v>291</v>
       </c>
       <c r="H44" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" t="s">
         <v>291</v>
       </c>
-      <c r="B45" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" t="s">
-        <v>275</v>
-      </c>
-      <c r="E45" t="s">
-        <v>288</v>
-      </c>
-      <c r="F45" t="s">
-        <v>174</v>
-      </c>
       <c r="H45" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E46" t="s">
-        <v>175</v>
+        <v>168</v>
+      </c>
+      <c r="F46" t="s">
+        <v>291</v>
+      </c>
+      <c r="G46" t="s">
+        <v>291</v>
       </c>
       <c r="H46" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D47" t="s">
-        <v>292</v>
+        <v>283</v>
+      </c>
+      <c r="E47" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" t="s">
+        <v>291</v>
       </c>
       <c r="H47" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E48" t="s">
-        <v>177</v>
+        <v>170</v>
+      </c>
+      <c r="F48" t="s">
+        <v>291</v>
+      </c>
+      <c r="G48" t="s">
+        <v>291</v>
       </c>
       <c r="H48" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>172</v>
+      </c>
+      <c r="G49" t="s">
+        <v>291</v>
       </c>
       <c r="H49" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I49" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B50" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C50" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D50" t="s">
-        <v>295</v>
+        <v>286</v>
+      </c>
+      <c r="E50" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" t="s">
+        <v>291</v>
+      </c>
+      <c r="G50" t="s">
+        <v>291</v>
       </c>
       <c r="H50" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I50" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F51" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="H51" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I51" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
-        <v>261</v>
+        <v>252</v>
+      </c>
+      <c r="F52" t="s">
+        <v>291</v>
+      </c>
+      <c r="G52" t="s">
+        <v>291</v>
       </c>
       <c r="H52" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3338,21 +3495,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DF165-E062-4177-BD9A-4C435D916465}">
-  <dimension ref="A1:AMJ74"/>
+  <dimension ref="A1:AMH74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A55"/>
+      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1024" width="19.75" style="2"/>
+    <col min="1" max="1022" width="19.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1022" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -3395,12 +3552,8 @@
       <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s">
-        <v>53</v>
-      </c>
+      <c r="O1"/>
+      <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
       <c r="S1"/>
@@ -4407,2210 +4560,1995 @@
       <c r="AMF1"/>
       <c r="AMG1"/>
       <c r="AMH1"/>
-      <c r="AMI1"/>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1022" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1022" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>163</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K56" t="s">
+        <v>107</v>
+      </c>
+      <c r="L56" t="s">
+        <v>107</v>
+      </c>
+      <c r="M56" s="10">
+        <v>43417</v>
+      </c>
+      <c r="N56" s="11">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="L58" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M58" s="12">
+        <v>0</v>
+      </c>
+      <c r="N58" s="13">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="M59" s="2">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M60" s="2">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M61" s="2">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M62" s="2">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M63" s="2">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M64" s="2">
+        <v>0</v>
+      </c>
+      <c r="N64" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M65" s="2">
+        <v>0</v>
+      </c>
+      <c r="N65" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="F66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="H66" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="M66" s="2">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="M67" s="2">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="M68" s="2">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="M69" s="2">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M70" s="2">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>190</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>191</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M72" s="2">
+        <v>1</v>
+      </c>
+      <c r="N72" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I74" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1024" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1024" ht="63" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>151</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>172</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>176</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>179</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>181</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>182</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>183</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M56" t="s">
-        <v>112</v>
-      </c>
-      <c r="N56" t="s">
-        <v>112</v>
-      </c>
-      <c r="O56" s="10">
-        <v>43417</v>
-      </c>
-      <c r="P56" s="11">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>184</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O58" s="12">
+      <c r="M74" s="2">
         <v>0</v>
       </c>
-      <c r="P58" s="13">
-        <v>0.99930555555555556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>186</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O59" s="2">
-        <v>0</v>
-      </c>
-      <c r="P59" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>188</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O61" s="2">
-        <v>0</v>
-      </c>
-      <c r="P61" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O63" s="2">
-        <v>0</v>
-      </c>
-      <c r="P63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>191</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J64" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O64" s="2">
-        <v>0</v>
-      </c>
-      <c r="P64" s="2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O65" s="2">
-        <v>0</v>
-      </c>
-      <c r="P65" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O66" s="2">
-        <v>0</v>
-      </c>
-      <c r="P66" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O67" s="2">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O68" s="2">
-        <v>0</v>
-      </c>
-      <c r="P68" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O69" s="2">
-        <v>0</v>
-      </c>
-      <c r="P69" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O70" s="2">
-        <v>0</v>
-      </c>
-      <c r="P70" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>197</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O71" s="2">
-        <v>0</v>
-      </c>
-      <c r="P71" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>198</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O72" s="2">
-        <v>1</v>
-      </c>
-      <c r="P72" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>200</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O74" s="2">
-        <v>0</v>
-      </c>
-      <c r="P74" s="2">
+      <c r="N74" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I72:I1048576 I67 I1:I63" xr:uid="{34807B26-DFCB-4954-B48D-EA07A3523DCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 G67 G1:G63" xr:uid="{34807B26-DFCB-4954-B48D-EA07A3523DCF}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2 F1:F1048576" xr:uid="{75C9FBD8-532B-4743-BBB0-EA7F5842405C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 F1:F1048576" xr:uid="{75C9FBD8-532B-4743-BBB0-EA7F5842405C}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I68:I71 I64:I66 D1:D1048576" xr:uid="{EEE289D4-EB39-4F40-9D52-38D4BFAAAD93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68:G71 G64:G66 D1:D1048576" xr:uid="{EEE289D4-EB39-4F40-9D52-38D4BFAAAD93}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576" xr:uid="{8F6442F9-A86C-4F91-8B91-87A8DD56E1AE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{8F6442F9-A86C-4F91-8B91-87A8DD56E1AE}">
       <formula1>"natural,whole,interger,real"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{0070B966-58B2-4D33-924B-A68761239D56}">

--- a/data-raw/metadata/F4F2019_metadata.xlsx
+++ b/data-raw/metadata/F4F2019_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erin Cain\Documents\Git\CVPIA\data-stewardship\EDI_data_repos_to_upload\fish-food-edi\data-raw\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40A702A-DEE0-43AE-BA9F-D9676D547FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B887E-1A27-4475-8C0B-65AD202CE1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8505" yWindow="-15900" windowWidth="25020" windowHeight="15225" tabRatio="543" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6360" yWindow="-16200" windowWidth="25020" windowHeight="15225" tabRatio="543" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="personnel" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="294">
   <si>
     <t>first_name</t>
   </si>
@@ -291,18 +291,12 @@
     <t>hydrological restoration</t>
   </si>
   <si>
-    <t>US Dept. of Interior, BOR</t>
-  </si>
-  <si>
     <t>R19AP00036</t>
   </si>
   <si>
     <t>Food for Fish: Reintegrating floodplain food web productivity into the River Aquatic Ecosystem to Benefit Juvenile Salmon</t>
   </si>
   <si>
-    <t>CVPIA grant</t>
-  </si>
-  <si>
     <t>ongoing</t>
   </si>
   <si>
@@ -447,9 +441,6 @@
     <t>Bosmina.sp.</t>
   </si>
   <si>
-    <t>Eubosmina.sp.</t>
-  </si>
-  <si>
     <t>Sididae</t>
   </si>
   <si>
@@ -471,9 +462,6 @@
     <t>Scapholeberis</t>
   </si>
   <si>
-    <t>Embryo</t>
-  </si>
-  <si>
     <t>Cladocera.embryo</t>
   </si>
   <si>
@@ -922,6 +910,12 @@
   </si>
   <si>
     <t>annually</t>
+  </si>
+  <si>
+    <t>USBR</t>
+  </si>
+  <si>
+    <t>CVPIA</t>
   </si>
 </sst>
 </file>
@@ -1443,7 +1437,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
         <v>56</v>
@@ -1541,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1735,6 +1729,11 @@
       </c>
       <c r="B23" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1777,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -1791,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1826,19 +1825,17 @@
     </row>
     <row r="2" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1855,7 +1852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1874,10 +1871,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1931,7 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2">
         <v>-121.79667600000001</v>
@@ -1970,7 +1967,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2019,28 +2016,28 @@
         <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" t="s">
         <v>209</v>
       </c>
-      <c r="F2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" t="s">
-        <v>213</v>
-      </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2048,28 +2045,28 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
         <v>209</v>
       </c>
-      <c r="F3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" t="s">
-        <v>213</v>
-      </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,28 +2074,28 @@
         <v>71</v>
       </c>
       <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" t="s">
         <v>225</v>
       </c>
-      <c r="C4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" t="s">
-        <v>229</v>
-      </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2106,28 +2103,28 @@
         <v>71</v>
       </c>
       <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" t="s">
         <v>225</v>
       </c>
-      <c r="C5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" t="s">
-        <v>229</v>
-      </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2135,28 +2132,25 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
         <v>225</v>
       </c>
-      <c r="C6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" t="s">
-        <v>291</v>
-      </c>
       <c r="H6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2164,28 +2158,25 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="C7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" t="s">
-        <v>291</v>
-      </c>
       <c r="H7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2193,28 +2184,22 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" t="s">
         <v>209</v>
       </c>
-      <c r="F8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" t="s">
-        <v>213</v>
-      </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2222,1269 +2207,1116 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" t="s">
         <v>226</v>
       </c>
-      <c r="D9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F9" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" t="s">
-        <v>291</v>
-      </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D10" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11" t="s">
         <v>211</v>
       </c>
-      <c r="H11" t="s">
-        <v>215</v>
-      </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H13" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D14" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D15" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E15" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F15" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D17" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D18" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H18" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E22" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I23" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D24" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E24" t="s">
-        <v>221</v>
-      </c>
-      <c r="F24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G24" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H26" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I28" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" t="s">
-        <v>291</v>
-      </c>
-      <c r="E29" t="s">
-        <v>291</v>
-      </c>
-      <c r="F29" t="s">
-        <v>291</v>
-      </c>
-      <c r="G29" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="H29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I29" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D30" t="s">
-        <v>260</v>
-      </c>
-      <c r="E30" t="s">
-        <v>291</v>
-      </c>
-      <c r="F30" t="s">
-        <v>291</v>
-      </c>
-      <c r="G30" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="H30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F31" t="s">
-        <v>291</v>
-      </c>
-      <c r="G31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H31" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I31" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F32" t="s">
-        <v>267</v>
-      </c>
-      <c r="G32" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="H32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I32" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
-      </c>
-      <c r="E33" t="s">
-        <v>291</v>
-      </c>
-      <c r="F33" t="s">
-        <v>291</v>
-      </c>
-      <c r="G33" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" t="s">
-        <v>291</v>
-      </c>
-      <c r="F34" t="s">
-        <v>291</v>
-      </c>
-      <c r="G34" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="H34" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I34" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
-      </c>
-      <c r="D35" t="s">
-        <v>291</v>
-      </c>
-      <c r="E35" t="s">
-        <v>291</v>
-      </c>
-      <c r="F35" t="s">
-        <v>291</v>
-      </c>
-      <c r="G35" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="H35" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D36" t="s">
-        <v>291</v>
-      </c>
-      <c r="E36" t="s">
-        <v>291</v>
-      </c>
-      <c r="F36" t="s">
-        <v>291</v>
-      </c>
-      <c r="G36" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="H36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I36" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C37" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D37" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" t="s">
         <v>251</v>
       </c>
-      <c r="E37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F37" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" t="s">
-        <v>255</v>
-      </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C38" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H38" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I38" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D39" t="s">
-        <v>266</v>
-      </c>
-      <c r="E39" t="s">
-        <v>291</v>
-      </c>
-      <c r="F39" t="s">
-        <v>291</v>
-      </c>
-      <c r="G39" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I39" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
-      </c>
-      <c r="E40" t="s">
-        <v>291</v>
-      </c>
-      <c r="F40" t="s">
-        <v>291</v>
-      </c>
-      <c r="G40" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="H40" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D41" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="H41" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F42" t="s">
-        <v>291</v>
-      </c>
-      <c r="G42" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H42" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E43" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F43" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C44" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
-      </c>
-      <c r="G44" t="s">
-        <v>291</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D45" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>167</v>
-      </c>
-      <c r="G45" t="s">
-        <v>291</v>
+        <v>163</v>
       </c>
       <c r="H45" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" t="s">
-        <v>291</v>
-      </c>
-      <c r="G46" t="s">
-        <v>291</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I46" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C47" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
-      </c>
-      <c r="E47" t="s">
-        <v>291</v>
-      </c>
-      <c r="F47" t="s">
-        <v>291</v>
-      </c>
-      <c r="G47" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I47" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" t="s">
-        <v>291</v>
-      </c>
-      <c r="G48" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="H48" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F49" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" t="s">
-        <v>291</v>
+        <v>168</v>
       </c>
       <c r="H49" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I49" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
-      </c>
-      <c r="E50" t="s">
-        <v>291</v>
-      </c>
-      <c r="F50" t="s">
-        <v>291</v>
-      </c>
-      <c r="G50" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="H50" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I50" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F51" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
-      </c>
-      <c r="F52" t="s">
-        <v>291</v>
-      </c>
-      <c r="G52" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="H52" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="I52" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3495,13 +3327,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81DF165-E062-4177-BD9A-4C435D916465}">
-  <dimension ref="A1:AMH74"/>
+  <dimension ref="A1:AMH72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B72" sqref="B72"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4563,25 +4395,25 @@
     </row>
     <row r="2" spans="1:1022" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
@@ -4589,1963 +4421,2217 @@
     </row>
     <row r="3" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="7" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="8" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="9" spans="1:1022" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="10" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="11" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="1:1022" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="I18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="G19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="I19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="G20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="I20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="G21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="I21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>139</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="G22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="I22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>140</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="G23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>141</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="I24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>142</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="G25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="I25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>143</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="G26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="I26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="G27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="I27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="G28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="I28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>146</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="I29" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="B30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="G30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="I31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="G32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="I32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="G33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="I33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>151</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="I34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="G35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="I35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>153</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I34" s="2" t="s">
+      <c r="G36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="G37" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="I37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="G38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="I38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>156</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="G39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="I39" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I38" s="2" t="s">
+      <c r="G40" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="I40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>158</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="G41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="I41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="2" t="s">
+      <c r="G42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="I42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="I43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>161</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="I44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0</v>
+      </c>
+      <c r="N44" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="G45" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="I45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0</v>
+      </c>
+      <c r="N45" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="B46" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="I46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0</v>
+      </c>
+      <c r="N46" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="B47" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="I47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0</v>
+      </c>
+      <c r="N47" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>165</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="B48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I46" s="2" t="s">
+      <c r="G48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="63" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>167</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="I48" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G52" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="2">
+        <v>1000000</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K54" t="s">
+        <v>105</v>
+      </c>
+      <c r="L54" t="s">
+        <v>105</v>
+      </c>
+      <c r="M54" s="10">
+        <v>43417</v>
+      </c>
+      <c r="N54" s="11">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>173</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>174</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>175</v>
-      </c>
       <c r="B55" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="M56" s="12">
+        <v>0</v>
+      </c>
+      <c r="N56" s="13">
+        <v>0.99930555555555556</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0</v>
+      </c>
+      <c r="N57" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>176</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="B58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L56" t="s">
-        <v>107</v>
-      </c>
-      <c r="M56" s="10">
-        <v>43417</v>
-      </c>
-      <c r="N56" s="11">
-        <v>43592</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>177</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="M58" s="12">
+      <c r="M58" s="2">
         <v>0</v>
       </c>
-      <c r="N58" s="13">
-        <v>0.99930555555555556</v>
+      <c r="N58" s="2">
+        <v>2000</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M59" s="2">
         <v>0</v>
       </c>
       <c r="N59" s="2">
-        <v>30</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G60" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M61" s="2">
         <v>0</v>
       </c>
       <c r="N61" s="2">
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>292</v>
+        <v>103</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M62" s="2">
         <v>0</v>
       </c>
       <c r="N62" s="2">
-        <v>1500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M63" s="2">
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M64" s="2">
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G65" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M65" s="2">
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G66" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M66" s="2">
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G67" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>195</v>
+        <v>289</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M67" s="2">
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>122</v>
+        <v>199</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M68" s="2">
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M69" s="2">
         <v>0</v>
       </c>
       <c r="N69" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M70" s="2">
+        <v>1</v>
+      </c>
+      <c r="N70" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>189</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M70" s="2">
-        <v>0</v>
-      </c>
-      <c r="N70" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="M71" s="2">
-        <v>0</v>
-      </c>
-      <c r="N71" s="2">
-        <v>1000000</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>192</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="63" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>193</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M74" s="2">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G72:G1048576 G67 G1:G63" xr:uid="{34807B26-DFCB-4954-B48D-EA07A3523DCF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G70:G1048576 G65 G1:G61" xr:uid="{34807B26-DFCB-4954-B48D-EA07A3523DCF}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 F1:F1048576" xr:uid="{75C9FBD8-532B-4743-BBB0-EA7F5842405C}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G68:G71 G64:G66 D1:D1048576" xr:uid="{EEE289D4-EB39-4F40-9D52-38D4BFAAAD93}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G66:G69 G62:G64 D1:D1048576" xr:uid="{EEE289D4-EB39-4F40-9D52-38D4BFAAAD93}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{8F6442F9-A86C-4F91-8B91-87A8DD56E1AE}">
